--- a/製令單_1121-1125 - 少.xlsx
+++ b/製令單_1121-1125 - 少.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ga_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D28EC-2BD6-4A61-98E6-4EA2315071CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02077E2-C8D1-4041-A4E0-0AC15E5DAC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1530" windowWidth="25545" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="2175" windowWidth="25545" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="製令單" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
